--- a/DeVision/temp/example.xlsx
+++ b/DeVision/temp/example.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\software\YaoYangKeJi\CoatVisionInspection\DeVision\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YY_QH\Desktop\Release0331\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="瑕疵列表" sheetId="1" r:id="rId1"/>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -656,7 +656,8 @@
     <col min="2" max="2" width="8.125" style="10" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="10" customWidth="1"/>
-    <col min="5" max="6" width="7.125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10" style="10" customWidth="1"/>
     <col min="7" max="7" width="14.375" style="10" customWidth="1"/>
     <col min="8" max="8" width="19.125" style="10" customWidth="1"/>
   </cols>
@@ -974,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -984,7 +985,8 @@
     <col min="2" max="2" width="8.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="7.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10" style="4" customWidth="1"/>
     <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="19.125" style="5" customWidth="1"/>
   </cols>

--- a/DeVision/temp/example.xlsx
+++ b/DeVision/temp/example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YY_QH\Desktop\Release0331\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\GitRepositories\fangliang11\CoatVisionInspection\DeVision\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,9 +75,6 @@
     <t>直径(mm)</t>
   </si>
   <si>
-    <t>面积(m2)</t>
-  </si>
-  <si>
     <t>检出时间</t>
   </si>
   <si>
@@ -102,6 +99,11 @@
   <si>
     <t>平均速度
 (m/min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积
+(mm2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +649,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,13 +704,13 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -747,25 +749,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -976,7 +978,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1031,13 +1033,13 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1076,25 +1078,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">

--- a/DeVision/temp/example.xlsx
+++ b/DeVision/temp/example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="瑕疵列表" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>直径(mm)</t>
   </si>
   <si>
-    <t>检出时间</t>
-  </si>
-  <si>
     <t>数量统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +101,10 @@
   <si>
     <t>面积
 (mm2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑕疵等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,13 +705,13 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -749,25 +750,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -977,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1033,13 +1034,13 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1078,25 +1079,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">

--- a/DeVision/temp/example.xlsx
+++ b/DeVision/temp/example.xlsx
@@ -16,6 +16,7 @@
     <sheet name="瑕疵分布图" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
